--- a/documentation/PLANNING.xlsx
+++ b/documentation/PLANNING.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\Alex\Cimino-Krausener-PEIP2-ARDUINO-PROJECT-\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF6131C-F736-4B1F-9367-5DA3754E0CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEDB95C-6E85-4445-99BC-A40C6863F313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2500" windowWidth="14400" windowHeight="7360" xr2:uid="{93472EC9-AD6A-41AA-9B02-F118DFDDF243}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93472EC9-AD6A-41AA-9B02-F118DFDDF243}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>PROJET ARDUINO</t>
   </si>
@@ -63,40 +64,37 @@
     <t>CIMINO</t>
   </si>
   <si>
-    <t>code déplacements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fin du code déplacement </t>
-  </si>
-  <si>
-    <t>fin du code relation voiture/déplacement</t>
-  </si>
-  <si>
-    <t>imprimer les pièces 3D/ commencer le code concernant les deplacements</t>
-  </si>
-  <si>
-    <t>code concernant la relation voiture/télécomande</t>
-  </si>
-  <si>
     <t>assemblage voiture</t>
   </si>
   <si>
-    <t>commande batteries, moteur... / commencer le code concernant la relation voiture/télécomande</t>
-  </si>
-  <si>
-    <t>gestion marche arrière</t>
-  </si>
-  <si>
-    <t>code déplacements + assemblage voiture</t>
-  </si>
-  <si>
-    <t>code concernant la relation voiture/télécomande + assemblage voiture</t>
-  </si>
-  <si>
     <t>pimpage de la caisse</t>
   </si>
   <si>
     <t xml:space="preserve">pimpage de la caisse </t>
+  </si>
+  <si>
+    <t>recherche information moteur/ achat pièce moteur/batterie</t>
+  </si>
+  <si>
+    <t>recherche informations transmission, cerveau moteur, achat pièces complemetaires</t>
+  </si>
+  <si>
+    <t>développement pièces transmission</t>
+  </si>
+  <si>
+    <t>développement pièces direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imprimer pièces faites au td d'avant </t>
+  </si>
+  <si>
+    <t>gestion direction avec télécomande (code)</t>
+  </si>
+  <si>
+    <t>gestion vitesse avec télécommande</t>
+  </si>
+  <si>
+    <t>création télécommande</t>
   </si>
 </sst>
 </file>
@@ -461,7 +459,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -509,10 +507,10 @@
         <v>45282</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -523,10 +521,10 @@
         <v>45303</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -537,10 +535,10 @@
         <v>45310</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -551,10 +549,10 @@
         <v>45316</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -564,8 +562,11 @@
       <c r="B8" s="1">
         <v>45330</v>
       </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -575,6 +576,12 @@
       <c r="B9" s="1">
         <v>45337</v>
       </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -584,10 +591,10 @@
         <v>45344</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/PLANNING.xlsx
+++ b/documentation/PLANNING.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Desktop\Alex\Cimino-Krausener-PEIP2-ARDUINO-PROJECT-\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEDB95C-6E85-4445-99BC-A40C6863F313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9082CF62-5E82-4084-BB53-FF2BABC14D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93472EC9-AD6A-41AA-9B02-F118DFDDF243}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>PROJET ARDUINO</t>
   </si>
@@ -95,6 +94,48 @@
   </si>
   <si>
     <t>création télécommande</t>
+  </si>
+  <si>
+    <t>Tâches</t>
+  </si>
+  <si>
+    <t>Travail de recherche</t>
+  </si>
+  <si>
+    <t>Instalation/configuration modules HC-12</t>
+  </si>
+  <si>
+    <t>Appropriation des données</t>
+  </si>
+  <si>
+    <t>Construction/Modélisation bras</t>
+  </si>
+  <si>
+    <t>Gestion direction avec télécomandre (branchements)</t>
+  </si>
+  <si>
+    <t>Comprehension des ponts H</t>
+  </si>
+  <si>
+    <t>Gestion direction avec télécomandre (code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Débuging </t>
+  </si>
+  <si>
+    <t>15 dec</t>
+  </si>
+  <si>
+    <t>22 dec</t>
+  </si>
+  <si>
+    <t>8 fev</t>
+  </si>
+  <si>
+    <t>15 fev</t>
+  </si>
+  <si>
+    <t>22 fev</t>
   </si>
 </sst>
 </file>
@@ -116,15 +157,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -132,22 +185,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -456,20 +594,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09575A7B-7D4C-4F41-B3B5-C32E1DD81452}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="64.36328125" customWidth="1"/>
-    <col min="4" max="4" width="75.36328125" customWidth="1"/>
+    <col min="1" max="1" width="50.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="79.1796875" customWidth="1"/>
+    <col min="4" max="4" width="71.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,12 +619,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -499,7 +638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -513,7 +652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -527,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -541,7 +680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -555,7 +694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -569,7 +708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -583,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -597,7 +736,203 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45303</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45310</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45316</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="D23" s="16"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="16"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H31" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
